--- a/results/latest_benchmarks.xlsx
+++ b/results/latest_benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -26335,8 +26335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26863,7 +26863,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27056,7 +27056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -27660,7 +27660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
